--- a/storage/importer/huts/EUMA_HUTS_IMPORT_FILE_EXAMPLE.xlsx
+++ b/storage/importer/huts/EUMA_HUTS_IMPORT_FILE_EXAMPLE.xlsx
@@ -9,16 +9,22 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhoNmKlNYQDNN85Qgfayx459c7Cxw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mibZGxRIcV+7KbeGygRT5V2w+n/Zw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="394">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="464">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>official_name</t>
+  </si>
+  <si>
+    <t>second_official_name</t>
   </si>
   <si>
     <t>description</t>
@@ -57,6 +63,9 @@
     <t>member_acronym</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Mt Dirfis - M. Nikolaou Refuge</t>
   </si>
   <si>
@@ -81,6 +90,9 @@
     <t>EOOA</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Mt Ochi - "Kastanolongos" Refuge</t>
   </si>
   <si>
@@ -99,6 +111,9 @@
     <t>0030 22240 22472</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Mt Tymfi - D. Georgoulis Refuge</t>
   </si>
   <si>
@@ -114,6 +129,9 @@
     <t>0030 26510 83906,0030 69732 23100</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Mt Mavrovouni - "Kokkini Vrysi" Refuge</t>
   </si>
   <si>
@@ -132,6 +150,9 @@
     <t>0030 26560 41207</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Mt Mitsikeli - A. Vertodoulos Refuge</t>
   </si>
   <si>
@@ -150,6 +171,9 @@
     <t>0030 26510 22138</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Mt Smolikas - "Nanes" Refuge</t>
   </si>
   <si>
@@ -165,6 +189,9 @@
     <t>0030 69880 15656,0030 69429 39939</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Mt Tzoumerka "Pramanda" Refuge</t>
   </si>
   <si>
@@ -183,6 +210,9 @@
     <t>0030 26590 61231</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Mt Tzoumerka "Melissourgi" Refuge</t>
   </si>
   <si>
@@ -201,6 +231,9 @@
     <t>0030 69734 97865</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Mt Ossa - "Kanalos" Refuge</t>
   </si>
   <si>
@@ -219,6 +252,9 @@
     <t>0030 2410 535097</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Mt Koziakas - C. Chatzipetros Refuge</t>
   </si>
   <si>
@@ -237,6 +273,9 @@
     <t>0030 69776 62569,0030 69760 80613,0030 24320 75306</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Mt Olympus - "Vrysopoules" - Refuge B</t>
   </si>
   <si>
@@ -252,6 +291,9 @@
     <t>0030 24930 62163</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Mt Pilio - "Agriolefkes" Refuge</t>
   </si>
   <si>
@@ -270,6 +312,9 @@
     <t>0030 24210 25696</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Mt Voutsikaki - "Karamanoli" Refuge</t>
   </si>
   <si>
@@ -288,6 +333,9 @@
     <t>0030 69327 44194, 0030 24410 94434</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Mt Koula - M. Theodoridis Refuge</t>
   </si>
   <si>
@@ -306,6 +354,9 @@
     <t>0030 25410 62629, 0030 69720 03910</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Mt Papikion Ch. Dimou</t>
   </si>
   <si>
@@ -324,6 +375,9 @@
     <t>0030 25310 29411, 0030 25331 030702</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Mt Dikti - "Strovili Limnarakou" Refuge</t>
   </si>
   <si>
@@ -342,6 +396,9 @@
     <t>0030 28103 18308</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Mt Lefka Ori - "Kallergi" Refuge</t>
   </si>
   <si>
@@ -360,6 +417,9 @@
     <t>0030 28210 44647,0030 69734 00077, 0030 69765 85849</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>Mt Lefka Ori - "Volikas" Refuge</t>
   </si>
   <si>
@@ -375,6 +435,9 @@
     <t>0030 28210 44647</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>Mt Lefka Ori - "Tavri" Refuge</t>
   </si>
   <si>
@@ -384,6 +447,9 @@
     <t>24.158412</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Mt Lefka Ori - C. Houliopoulos Refuge</t>
   </si>
   <si>
@@ -393,6 +459,9 @@
     <t>24.030676</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>Mt Psiloritis - "Prinos" Refuge</t>
   </si>
   <si>
@@ -411,6 +480,9 @@
     <t>0030 2810 227609</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>Mt Psiloritis - "Toumpotos Prinos" Refuge</t>
   </si>
   <si>
@@ -429,6 +501,9 @@
     <t>0030 28310 57766</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>Mt Askio (Siniatsiko) Refuge</t>
   </si>
   <si>
@@ -447,6 +522,9 @@
     <t>0030 24630 27501</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Mt Falakro - "Agiou Pneumatos Plateau" Refuge</t>
   </si>
   <si>
@@ -465,6 +543,9 @@
     <t>0030 69447 98758</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>Mt Hortiatis - "Tzeki" Refuge</t>
   </si>
   <si>
@@ -483,6 +564,9 @@
     <t>0030 23102 24710</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>Mt Ipsarion - I. Panagiotou Refuge</t>
   </si>
   <si>
@@ -501,6 +585,9 @@
     <t>0030 25930 23384</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>Mt Olympus - Koromilia Refuge</t>
   </si>
   <si>
@@ -519,6 +606,9 @@
     <t>0030 69456 61104 ,0030 69755 73009</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>Mt Olympus - Krevatia Refuge</t>
   </si>
   <si>
@@ -537,6 +627,9 @@
     <t>0030 69715 86436</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>Mt Olympus - "Petrostrouga" Refuge</t>
   </si>
   <si>
@@ -555,6 +648,9 @@
     <t>0030 2310 310649</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>Mt Olympus - Spilios Agapitos - Refuge A</t>
   </si>
   <si>
@@ -573,6 +669,9 @@
     <t>0030 23520 81800</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>Mt Olympus - C. Kakalos Refuge - Refuge C</t>
   </si>
   <si>
@@ -591,6 +690,9 @@
     <t>0030 69373 61689</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>Mt Olympus - Refuge D - D. Boudolas</t>
   </si>
   <si>
@@ -607,6 +709,9 @@
   </si>
   <si>
     <t>0030 23520 84100, 0030 23520 84519</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>Mt Olympus - G. Apostolidis - Seo Refuge</t>
@@ -625,6 +730,9 @@
     <t>0030 23510 82840,0030 23102 24710,0030 69397 77064 ,0030 69480 43655</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>Mt Paggaio - "Avgo" Refuge</t>
   </si>
   <si>
@@ -643,6 +751,9 @@
     <t>0030 25102 32429</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>Mt Pangaio - S. Hatzigeorgiou Refuge</t>
   </si>
   <si>
@@ -661,6 +772,9 @@
     <t>0030 25108 35952, 0030 69787 70560</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>Mt Pieria - M. Kyratsous Refuge</t>
   </si>
   <si>
@@ -679,6 +793,9 @@
     <t>0030 24610 25909</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>Mt Pieria - "Giourtia Tourlas" Refuge</t>
   </si>
   <si>
@@ -697,6 +814,9 @@
     <t>0030 24640 31884</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>Mt Pieriea - I. Chasiotis Refuge</t>
   </si>
   <si>
@@ -715,6 +835,9 @@
     <t>0030 23510 23102</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>Mt Pieria - "Sarakatsana" Refuge</t>
   </si>
   <si>
@@ -733,6 +856,9 @@
     <t>0030 23510 27995</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>Mt Vasilitsa - Vasilitsa Chalet</t>
   </si>
   <si>
@@ -751,6 +877,9 @@
     <t>0030 24620 28602</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>Mt Vasilitsa - "Diaselo Gomaras" Refuge</t>
   </si>
   <si>
@@ -763,6 +892,9 @@
     <t>0030 24620 81208, 0030 24620 28602</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>Mt Vermio - "Seli" Refuge</t>
   </si>
   <si>
@@ -778,6 +910,9 @@
     <t>0030 23320 71234, 0030 23102 78288</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>Mt Vermio - "3-5 Pigadia" Refuge</t>
   </si>
   <si>
@@ -796,6 +931,9 @@
     <t>0030 23320 28567</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>Mt Vermio - "3-5 Pigadia" Chalet</t>
   </si>
   <si>
@@ -808,6 +946,9 @@
     <t>EOS NAOUSSAS</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>Mt Vermio - "Seli (Lakka Mire)" Refuge</t>
   </si>
   <si>
@@ -826,6 +967,9 @@
     <t>0030 23310 49209, 0030 23310 26970</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>Mt Vitsi - A. Motesnitsas Refuge</t>
   </si>
   <si>
@@ -844,6 +988,9 @@
     <t>0030 23850 25880, 0030 6938947959, 0030 69329 17489</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>Mt Vitsi - "Vigla Pisoderiou" Refuge</t>
   </si>
   <si>
@@ -862,6 +1009,9 @@
     <t>0030 23850 29939</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>Mt Vounasa - "Prionos" Refuge</t>
   </si>
   <si>
@@ -880,6 +1030,9 @@
     <t>0030 24620 31127, 0030 24620 31756</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>Mt Vourinos - "Tsiama" Refuge</t>
   </si>
   <si>
@@ -898,6 +1051,9 @@
     <t>0030 24650 22805, 0030 69722 62075, 0030 69364 80378</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>Mt Vrountous - C. Karampourounis Refuge</t>
   </si>
   <si>
@@ -916,6 +1072,9 @@
     <t>0030 23210 53790, 0030 23210 62400</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>Mt Mainalo - "Lakka Ostrakinas" Refuge</t>
   </si>
   <si>
@@ -934,6 +1093,9 @@
     <t>0030 27102 32243, 0030 69741 25248</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>Mt Panachaiko - I. Diakidis Refuge</t>
   </si>
   <si>
@@ -952,6 +1114,9 @@
     <t>0030 26102 73912</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>Mt Panachaiko - S. Gerokostopoulos Refuge</t>
   </si>
   <si>
@@ -964,6 +1129,9 @@
     <t>EOS Patras</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>Mt Parnon - G. Papatheodorou (G. Pierce) Refuge</t>
   </si>
   <si>
@@ -982,6 +1150,9 @@
     <t>0030 27310 22574</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>Mt Taygetos - "Varvara" Refuge</t>
   </si>
   <si>
@@ -991,6 +1162,9 @@
     <t>22.3677</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>Mt Ziria - D. Loukisas Refuge</t>
   </si>
   <si>
@@ -1009,6 +1183,9 @@
     <t>0030 27410 29970, 0030 69432 16470</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>Mt Giona - G. Perdikis Refuge</t>
   </si>
   <si>
@@ -1027,6 +1204,9 @@
     <t>0030 210 8218401</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>Mt Kaliakouda - "Lakkomata" Refuge</t>
   </si>
   <si>
@@ -1045,6 +1225,9 @@
     <t>0030 22370 23051</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>Mt Kitheron - E. Tsakos Refuge</t>
   </si>
   <si>
@@ -1063,6 +1246,9 @@
     <t>0030 21055 45430</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>Mt Oiti - G. Moisidis Refuge</t>
   </si>
   <si>
@@ -1081,6 +1267,9 @@
     <t>0030 22310 26786</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>Mt Oxia - L. Eftaxias Refuge</t>
   </si>
   <si>
@@ -1096,6 +1285,9 @@
     <t>0030 21036 45904, 0030 69799 11408</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>Mt Panaitoliko - "Diaselaki Peristeriou" Refuge</t>
   </si>
   <si>
@@ -1114,6 +1306,9 @@
     <t>0030 26410 45512</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>Mt Parnassos - M. Defner Refuge</t>
   </si>
   <si>
@@ -1129,6 +1324,9 @@
     <t>0030 22370 25130, 0030 69368 61064</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>Mt Parnitha - "Bafi" Refuge</t>
   </si>
   <si>
@@ -1147,6 +1345,9 @@
     <t>0030 21024 03556, 0030 21024 69050, 0030 69776 48739</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>Mt Parnitha - "Flampouri" Refuge</t>
   </si>
   <si>
@@ -1165,6 +1366,9 @@
     <t>0030 21024 61528, 0030 21024 64666 , 0030 69722 56215</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>Mt Vardousia - A. Tzartzanos Refuge</t>
   </si>
   <si>
@@ -1177,6 +1381,9 @@
     <t>0030 22650 28577, 0030 69748 24456, 0030 22650 62195</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>Mt Vardousia - "Meterizia" Refuge</t>
   </si>
   <si>
@@ -1187,6 +1394,9 @@
   </si>
   <si>
     <t>0030 21082 18401</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
   <si>
     <t>Mt Velouchi - A. Lefkaditis Refuge</t>
@@ -1299,84 +1509,26 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1389,13 +1541,15 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1406,7 +1560,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1416,7 +1569,6 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1426,7 +1578,6 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1643,19 +1794,22 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="43.29"/>
-    <col customWidth="1" min="3" max="3" width="20.86"/>
-    <col customWidth="1" min="4" max="4" width="22.14"/>
-    <col customWidth="1" min="5" max="5" width="11.71"/>
-    <col customWidth="1" min="6" max="6" width="23.0"/>
+    <col customWidth="1" min="1" max="1" width="9.43"/>
+    <col customWidth="1" min="2" max="2" width="43.29"/>
+    <col customWidth="1" min="3" max="3" width="22.43"/>
+    <col customWidth="1" min="4" max="4" width="20.71"/>
+    <col customWidth="1" min="5" max="5" width="20.86"/>
+    <col customWidth="1" min="6" max="6" width="22.14"/>
     <col customWidth="1" min="7" max="7" width="11.71"/>
-    <col customWidth="1" min="8" max="8" width="16.0"/>
-    <col customWidth="1" min="9" max="9" width="37.71"/>
-    <col customWidth="1" min="10" max="11" width="16.0"/>
-    <col customWidth="1" min="12" max="12" width="14.86"/>
-    <col customWidth="1" min="13" max="13" width="29.0"/>
-    <col customWidth="1" min="14" max="14" width="29.57"/>
-    <col customWidth="1" min="15" max="22" width="8.71"/>
+    <col customWidth="1" min="8" max="8" width="23.0"/>
+    <col customWidth="1" min="9" max="9" width="11.71"/>
+    <col customWidth="1" min="10" max="10" width="16.0"/>
+    <col customWidth="1" min="11" max="11" width="37.71"/>
+    <col customWidth="1" min="12" max="13" width="16.0"/>
+    <col customWidth="1" min="14" max="14" width="14.86"/>
+    <col customWidth="1" min="15" max="15" width="29.0"/>
+    <col customWidth="1" min="16" max="16" width="29.57"/>
+    <col customWidth="1" min="17" max="24" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
@@ -1665,22 +1819,22 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1689,143 +1843,159 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11">
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="11">
         <v>1110.0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15" t="s">
-        <v>18</v>
+      <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="16" t="s">
-        <v>19</v>
+      <c r="K2" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N2" s="14"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="O2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="14"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" ht="21.0" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11">
         <v>1020.0</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
-        <v>25</v>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="14"/>
-      <c r="K3" s="19" t="s">
-        <v>26</v>
+      <c r="K3" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="L3" s="14"/>
-      <c r="M3" s="16" t="s">
-        <v>20</v>
+      <c r="M3" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="O3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11">
         <v>1930.0</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="19" t="s">
-        <v>31</v>
+      <c r="K4" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="L4" s="17"/>
-      <c r="M4" s="16" t="s">
-        <v>20</v>
+      <c r="M4" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="O4" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
@@ -1833,1637 +2003,1793 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="11">
         <v>1850.0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15" t="s">
-        <v>36</v>
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="14"/>
-      <c r="K5" s="19" t="s">
-        <v>37</v>
+      <c r="K5" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="L5" s="14"/>
-      <c r="M5" s="16" t="s">
-        <v>20</v>
+      <c r="M5" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="N5" s="14"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="O5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="14"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="11">
         <v>1300.0</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15" t="s">
-        <v>42</v>
+      <c r="H6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="14"/>
-      <c r="K6" s="19" t="s">
-        <v>43</v>
+      <c r="K6" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="L6" s="14"/>
-      <c r="M6" s="16" t="s">
-        <v>20</v>
+      <c r="M6" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="N6" s="14"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="O6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="14"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="11">
         <v>1750.0</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15" t="s">
-        <v>47</v>
+      <c r="H7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="14"/>
-      <c r="K7" s="19" t="s">
-        <v>48</v>
+      <c r="K7" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="L7" s="14"/>
-      <c r="M7" s="16" t="s">
-        <v>20</v>
+      <c r="M7" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="N7" s="14"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="O7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="14"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
     </row>
     <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="A8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="11">
         <v>1350.0</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15" t="s">
-        <v>53</v>
+      <c r="H8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="14"/>
-      <c r="K8" s="19" t="s">
-        <v>54</v>
+      <c r="K8" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="L8" s="14"/>
-      <c r="M8" s="16" t="s">
-        <v>20</v>
+      <c r="M8" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="N8" s="14"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="O8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="14"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="A9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="11">
         <v>1000.0</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15" t="s">
-        <v>59</v>
+      <c r="H9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="19" t="s">
-        <v>60</v>
+      <c r="K9" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="16" t="s">
-        <v>20</v>
+      <c r="M9" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="N9" s="14"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="O9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="14"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
     </row>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="A10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="11">
         <v>1540.0</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15" t="s">
-        <v>65</v>
+      <c r="H10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="19" t="s">
-        <v>66</v>
+      <c r="K10" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="16" t="s">
-        <v>20</v>
+      <c r="M10" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="N10" s="14"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="O10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="14"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="A11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="11">
         <v>1720.0</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="21" t="s">
-        <v>71</v>
+      <c r="H11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="19" t="s">
-        <v>72</v>
+      <c r="K11" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="L11" s="14"/>
-      <c r="M11" s="16" t="s">
-        <v>20</v>
+      <c r="M11" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="N11" s="14"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="O11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="14"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="A12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="11">
         <v>1800.0</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="19" t="s">
-        <v>77</v>
+      <c r="K12" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="L12" s="14"/>
-      <c r="M12" s="16" t="s">
-        <v>20</v>
+      <c r="M12" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="N12" s="14"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="O12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="14"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="A13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="11">
         <v>1320.0</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15" t="s">
-        <v>82</v>
+      <c r="H13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="19" t="s">
-        <v>83</v>
+      <c r="K13" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="L13" s="14"/>
-      <c r="M13" s="16" t="s">
-        <v>20</v>
+      <c r="M13" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="N13" s="14"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="O13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="14"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="11">
         <v>1530.0</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15" t="s">
-        <v>88</v>
+      <c r="H14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="19" t="s">
-        <v>89</v>
+      <c r="K14" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="L14" s="14"/>
-      <c r="M14" s="16" t="s">
-        <v>20</v>
+      <c r="M14" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="N14" s="14"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="O14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="14"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="A15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="11">
         <v>1230.0</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15" t="s">
-        <v>94</v>
+      <c r="H15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J15" s="14"/>
-      <c r="K15" s="19" t="s">
-        <v>95</v>
+      <c r="K15" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="L15" s="14"/>
-      <c r="M15" s="16" t="s">
-        <v>20</v>
+      <c r="M15" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="N15" s="14"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="O15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="14"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="A16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="11">
         <v>1030.0</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15" t="s">
-        <v>100</v>
+      <c r="H16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J16" s="14"/>
-      <c r="K16" s="19" t="s">
-        <v>101</v>
+      <c r="K16" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="L16" s="14"/>
-      <c r="M16" s="16" t="s">
-        <v>20</v>
+      <c r="M16" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="N16" s="14"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="O16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="14"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
     </row>
     <row r="17" ht="18.0" customHeight="1">
-      <c r="A17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="A17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="11">
         <v>1350.0</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="H17" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="14"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="A18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="11">
         <v>1680.0</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15" t="s">
-        <v>112</v>
+      <c r="H18" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="19" t="s">
-        <v>113</v>
+      <c r="K18" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="L18" s="14"/>
-      <c r="M18" s="16" t="s">
-        <v>20</v>
+      <c r="M18" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="N18" s="14"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="O18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="14"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="A19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="11">
         <v>1400.0</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15" t="s">
-        <v>112</v>
+      <c r="H19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="K19" s="19" t="s">
-        <v>118</v>
+      <c r="K19" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="L19" s="14"/>
-      <c r="M19" s="16" t="s">
-        <v>20</v>
+      <c r="M19" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="N19" s="14"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="O19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="14"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="A20" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="11">
         <v>1200.0</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15" t="s">
-        <v>112</v>
+      <c r="H20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J20" s="14"/>
-      <c r="K20" s="19" t="s">
-        <v>118</v>
+      <c r="K20" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="L20" s="14"/>
-      <c r="M20" s="16" t="s">
-        <v>20</v>
+      <c r="M20" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="N20" s="14"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="O20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="14"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="A21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="11">
         <v>1980.0</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="s">
-        <v>112</v>
+      <c r="H21" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J21" s="14"/>
-      <c r="K21" s="19" t="s">
-        <v>118</v>
+      <c r="K21" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="L21" s="14"/>
-      <c r="M21" s="16" t="s">
-        <v>20</v>
+      <c r="M21" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="N21" s="14"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="O21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="14"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="A22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="11">
         <v>1050.0</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15" t="s">
-        <v>129</v>
+      <c r="H22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="19" t="s">
-        <v>130</v>
+      <c r="K22" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="L22" s="14"/>
-      <c r="M22" s="16" t="s">
-        <v>20</v>
+      <c r="M22" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="N22" s="14"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="O22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="14"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="A23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="11">
         <v>1350.0</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15" t="s">
-        <v>135</v>
+      <c r="H23" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J23" s="14"/>
-      <c r="K23" s="19" t="s">
-        <v>136</v>
+      <c r="K23" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="L23" s="14"/>
-      <c r="M23" s="16" t="s">
-        <v>20</v>
+      <c r="M23" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="N23" s="14"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="O23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="14"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="A24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="11">
         <v>1480.0</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15" t="s">
-        <v>141</v>
+      <c r="H24" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="19" t="s">
-        <v>142</v>
+      <c r="K24" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="L24" s="14"/>
-      <c r="M24" s="16" t="s">
-        <v>20</v>
+      <c r="M24" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="N24" s="14"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="O24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="14"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="A25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="11">
         <v>1730.0</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15" t="s">
-        <v>147</v>
+      <c r="H25" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="19" t="s">
-        <v>148</v>
+      <c r="K25" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="L25" s="14"/>
-      <c r="M25" s="16" t="s">
-        <v>20</v>
+      <c r="M25" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="N25" s="14"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="O25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="14"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="A26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="11">
         <v>980.0</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15" t="s">
-        <v>153</v>
+      <c r="H26" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="19" t="s">
-        <v>154</v>
+      <c r="K26" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="L26" s="14"/>
-      <c r="M26" s="16" t="s">
-        <v>20</v>
+      <c r="M26" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="N26" s="14"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="O26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="14"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="A27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="11">
         <v>980.0</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15" t="s">
-        <v>159</v>
+      <c r="H27" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="19" t="s">
-        <v>160</v>
+      <c r="K27" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="L27" s="14"/>
-      <c r="M27" s="16" t="s">
-        <v>20</v>
+      <c r="M27" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="N27" s="14"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
+      <c r="O27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="14"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="A28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="11">
         <v>1020.0</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="21" t="s">
-        <v>165</v>
+      <c r="H28" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J28" s="14"/>
-      <c r="K28" s="19" t="s">
-        <v>166</v>
+      <c r="K28" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="L28" s="14"/>
-      <c r="M28" s="16" t="s">
-        <v>20</v>
+      <c r="M28" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="N28" s="14"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
+      <c r="O28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="14"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="A29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="11">
         <v>960.0</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15" t="s">
-        <v>171</v>
+      <c r="H29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J29" s="14"/>
-      <c r="K29" s="19" t="s">
-        <v>172</v>
+      <c r="K29" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="L29" s="14"/>
-      <c r="M29" s="16" t="s">
-        <v>20</v>
+      <c r="M29" s="18" t="s">
+        <v>202</v>
       </c>
       <c r="N29" s="14"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="O29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="14"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="A30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="11">
         <v>1940.0</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15" t="s">
-        <v>177</v>
+      <c r="H30" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J30" s="14"/>
-      <c r="K30" s="19" t="s">
-        <v>178</v>
+      <c r="K30" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="L30" s="14"/>
-      <c r="M30" s="16" t="s">
-        <v>20</v>
+      <c r="M30" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="N30" s="14"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
+      <c r="O30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="14"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="A31" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="11">
         <v>2060.0</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15" t="s">
-        <v>183</v>
+      <c r="H31" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J31" s="14"/>
-      <c r="K31" s="19" t="s">
-        <v>184</v>
+      <c r="K31" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="L31" s="14"/>
-      <c r="M31" s="16" t="s">
-        <v>20</v>
+      <c r="M31" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="N31" s="14"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="O31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="14"/>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="A32" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="11">
         <v>2650.0</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15" t="s">
-        <v>189</v>
+      <c r="H32" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J32" s="14"/>
-      <c r="K32" s="19" t="s">
-        <v>190</v>
+      <c r="K32" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="L32" s="14"/>
-      <c r="M32" s="16" t="s">
-        <v>20</v>
+      <c r="M32" s="18" t="s">
+        <v>223</v>
       </c>
       <c r="N32" s="14"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
+      <c r="O32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="14"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="11">
+      <c r="A33" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="11">
         <v>930.0</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15" t="s">
-        <v>195</v>
+      <c r="H33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J33" s="14"/>
-      <c r="K33" s="19" t="s">
-        <v>196</v>
+      <c r="K33" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="L33" s="14"/>
-      <c r="M33" s="16" t="s">
-        <v>20</v>
+      <c r="M33" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="N33" s="14"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
+      <c r="O33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="14"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="A34" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="11">
         <v>2700.0</v>
       </c>
-      <c r="F34" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="21" t="s">
-        <v>47</v>
+      <c r="H34" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J34" s="14"/>
-      <c r="K34" s="19" t="s">
-        <v>201</v>
+      <c r="K34" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="L34" s="14"/>
-      <c r="M34" s="16" t="s">
-        <v>20</v>
+      <c r="M34" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="N34" s="14"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
+      <c r="O34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="14"/>
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
       <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="A35" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="11">
         <v>1580.0</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15" t="s">
-        <v>206</v>
+      <c r="H35" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J35" s="14"/>
-      <c r="K35" s="19" t="s">
-        <v>207</v>
+      <c r="K35" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="L35" s="14"/>
-      <c r="M35" s="16" t="s">
-        <v>20</v>
+      <c r="M35" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="N35" s="14"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
+      <c r="O35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="14"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="11">
+      <c r="A36" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="11">
         <v>1650.0</v>
       </c>
-      <c r="F36" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15" t="s">
-        <v>212</v>
+      <c r="H36" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J36" s="14"/>
-      <c r="K36" s="19" t="s">
-        <v>213</v>
+      <c r="K36" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="L36" s="14"/>
-      <c r="M36" s="16" t="s">
-        <v>20</v>
+      <c r="M36" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="N36" s="14"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
+      <c r="O36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="14"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
       <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="A37" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="11">
         <v>1945.0</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15" t="s">
-        <v>218</v>
+      <c r="H37" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J37" s="14"/>
-      <c r="K37" s="19" t="s">
-        <v>219</v>
+      <c r="K37" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="L37" s="14"/>
-      <c r="M37" s="16" t="s">
-        <v>20</v>
+      <c r="M37" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="N37" s="14"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
+      <c r="O37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="14"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="A38" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="11">
         <v>1450.0</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15" t="s">
-        <v>224</v>
+      <c r="H38" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J38" s="14"/>
-      <c r="K38" s="19" t="s">
-        <v>225</v>
+      <c r="K38" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="L38" s="14"/>
-      <c r="M38" s="16" t="s">
-        <v>20</v>
+      <c r="M38" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="N38" s="14"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
+      <c r="O38" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="14"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="A39" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="11">
         <v>1050.0</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15" t="s">
-        <v>230</v>
+      <c r="H39" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J39" s="14"/>
-      <c r="K39" s="19" t="s">
-        <v>231</v>
+      <c r="K39" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="L39" s="14"/>
-      <c r="M39" s="16" t="s">
-        <v>20</v>
+      <c r="M39" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="N39" s="14"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
+      <c r="O39" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" s="14"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="A40" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="11">
         <v>1680.0</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15" t="s">
-        <v>236</v>
+      <c r="H40" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J40" s="14"/>
-      <c r="K40" s="19" t="s">
-        <v>237</v>
+      <c r="K40" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="L40" s="14"/>
-      <c r="M40" s="16" t="s">
-        <v>20</v>
+      <c r="M40" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="N40" s="14"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
+      <c r="O40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="14"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E41" s="11">
+      <c r="A41" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="11">
         <v>1800.0</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15" t="s">
-        <v>242</v>
+      <c r="H41" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J41" s="14"/>
-      <c r="K41" s="19" t="s">
-        <v>243</v>
+      <c r="K41" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="L41" s="14"/>
-      <c r="M41" s="16" t="s">
-        <v>20</v>
+      <c r="M41" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="N41" s="14"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
+      <c r="O41" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="14"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E42" s="11">
+      <c r="A42" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="11">
         <v>1820.0</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15" t="s">
-        <v>242</v>
+      <c r="H42" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J42" s="14"/>
-      <c r="K42" s="19" t="s">
-        <v>247</v>
+      <c r="K42" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="L42" s="14"/>
-      <c r="M42" s="16" t="s">
-        <v>20</v>
+      <c r="M42" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="N42" s="14"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
+      <c r="O42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="14"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" s="11">
+      <c r="A43" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" s="11">
         <v>1450.0</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="15" t="s">
-        <v>251</v>
+      <c r="H43" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J43" s="17"/>
-      <c r="K43" s="19" t="s">
-        <v>252</v>
+      <c r="K43" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="L43" s="17"/>
-      <c r="M43" s="16" t="s">
-        <v>20</v>
+      <c r="M43" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
+      <c r="O43" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
@@ -3471,41 +3797,45 @@
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" s="11">
+      <c r="A44" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" s="11">
         <v>1450.0</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="15" t="s">
-        <v>257</v>
+      <c r="H44" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J44" s="17"/>
-      <c r="K44" s="19" t="s">
-        <v>258</v>
+      <c r="K44" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="L44" s="17"/>
-      <c r="M44" s="16" t="s">
-        <v>20</v>
+      <c r="M44" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
+      <c r="O44" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -3513,41 +3843,45 @@
       <c r="T44" s="17"/>
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" s="11">
+      <c r="A45" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" s="11">
         <v>1470.0</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="15" t="s">
-        <v>262</v>
+      <c r="H45" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J45" s="17"/>
-      <c r="K45" s="19" t="s">
-        <v>258</v>
+      <c r="K45" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="L45" s="17"/>
-      <c r="M45" s="16" t="s">
-        <v>20</v>
+      <c r="M45" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
+      <c r="O45" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
@@ -3555,41 +3889,45 @@
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E46" s="11">
+      <c r="A46" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46" s="11">
         <v>1500.0</v>
       </c>
-      <c r="F46" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="15" t="s">
-        <v>267</v>
+      <c r="H46" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J46" s="17"/>
-      <c r="K46" s="19" t="s">
-        <v>268</v>
+      <c r="K46" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="L46" s="17"/>
-      <c r="M46" s="16" t="s">
-        <v>20</v>
+      <c r="M46" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
+      <c r="O46" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
@@ -3597,41 +3935,45 @@
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E47" s="11">
+      <c r="A47" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G47" s="11">
         <v>1650.0</v>
       </c>
-      <c r="F47" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="15" t="s">
-        <v>273</v>
+      <c r="H47" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J47" s="17"/>
-      <c r="K47" s="19" t="s">
-        <v>274</v>
+      <c r="K47" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="L47" s="17"/>
-      <c r="M47" s="16" t="s">
-        <v>20</v>
+      <c r="M47" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="O47" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -3639,41 +3981,45 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="11">
+      <c r="A48" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" s="11">
         <v>1550.0</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="15" t="s">
-        <v>279</v>
+      <c r="H48" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J48" s="17"/>
-      <c r="K48" s="19" t="s">
-        <v>280</v>
+      <c r="K48" s="15" t="s">
+        <v>328</v>
       </c>
       <c r="L48" s="17"/>
-      <c r="M48" s="16" t="s">
-        <v>20</v>
+      <c r="M48" s="18" t="s">
+        <v>329</v>
       </c>
       <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
+      <c r="O48" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
@@ -3681,41 +4027,45 @@
       <c r="T48" s="17"/>
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="A49" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" s="11">
         <v>1420.0</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="15" t="s">
-        <v>285</v>
+      <c r="H49" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J49" s="17"/>
-      <c r="K49" s="19" t="s">
-        <v>286</v>
+      <c r="K49" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="L49" s="17"/>
-      <c r="M49" s="16" t="s">
-        <v>20</v>
+      <c r="M49" s="18" t="s">
+        <v>336</v>
       </c>
       <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
+      <c r="O49" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
@@ -3723,41 +4073,45 @@
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="E50" s="11">
+      <c r="A50" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="11">
         <v>1360.0</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="15" t="s">
-        <v>291</v>
+      <c r="H50" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J50" s="17"/>
-      <c r="K50" s="19" t="s">
-        <v>292</v>
+      <c r="K50" s="15" t="s">
+        <v>342</v>
       </c>
       <c r="L50" s="17"/>
-      <c r="M50" s="16" t="s">
-        <v>20</v>
+      <c r="M50" s="18" t="s">
+        <v>343</v>
       </c>
       <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
+      <c r="O50" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
@@ -3765,41 +4119,45 @@
       <c r="T50" s="17"/>
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E51" s="11">
+      <c r="A51" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" s="11">
         <v>1520.0</v>
       </c>
-      <c r="F51" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="15" t="s">
-        <v>297</v>
+      <c r="H51" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J51" s="17"/>
-      <c r="K51" s="19" t="s">
-        <v>298</v>
+      <c r="K51" s="15" t="s">
+        <v>349</v>
       </c>
       <c r="L51" s="17"/>
-      <c r="M51" s="16" t="s">
-        <v>20</v>
+      <c r="M51" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
+      <c r="O51" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
       <c r="R51" s="17"/>
@@ -3807,41 +4165,45 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="E52" s="11">
+      <c r="A52" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" s="11">
         <v>1580.0</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="15" t="s">
-        <v>303</v>
+      <c r="H52" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J52" s="17"/>
-      <c r="K52" s="19" t="s">
-        <v>304</v>
+      <c r="K52" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="L52" s="17"/>
-      <c r="M52" s="16" t="s">
-        <v>20</v>
+      <c r="M52" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
+      <c r="O52" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P52" s="17"/>
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
@@ -3849,41 +4211,45 @@
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="E53" s="11">
+      <c r="A53" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" s="11">
         <v>1760.0</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="15" t="s">
-        <v>309</v>
+      <c r="H53" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J53" s="17"/>
-      <c r="K53" s="19" t="s">
-        <v>310</v>
+      <c r="K53" s="15" t="s">
+        <v>363</v>
       </c>
       <c r="L53" s="17"/>
-      <c r="M53" s="16" t="s">
-        <v>20</v>
+      <c r="M53" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
+      <c r="O53" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
@@ -3891,41 +4257,45 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="E54" s="11">
+      <c r="A54" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G54" s="11">
         <v>1500.0</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="15" t="s">
-        <v>314</v>
+      <c r="H54" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J54" s="17"/>
-      <c r="K54" s="19" t="s">
-        <v>310</v>
+      <c r="K54" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="L54" s="17"/>
-      <c r="M54" s="16" t="s">
-        <v>20</v>
+      <c r="M54" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
+      <c r="O54" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
@@ -3933,41 +4303,45 @@
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E55" s="11">
+      <c r="A55" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G55" s="11">
         <v>1440.0</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="15" t="s">
-        <v>319</v>
+      <c r="H55" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J55" s="17"/>
-      <c r="K55" s="19" t="s">
-        <v>320</v>
+      <c r="K55" s="15" t="s">
+        <v>375</v>
       </c>
       <c r="L55" s="17"/>
-      <c r="M55" s="16" t="s">
-        <v>20</v>
+      <c r="M55" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
+      <c r="O55" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
       <c r="R55" s="17"/>
@@ -3975,41 +4349,45 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E56" s="11">
+      <c r="A56" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" s="11">
         <v>1540.0</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="15" t="s">
-        <v>319</v>
+      <c r="H56" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J56" s="17"/>
-      <c r="K56" s="19" t="s">
-        <v>320</v>
+      <c r="K56" s="15" t="s">
+        <v>375</v>
       </c>
       <c r="L56" s="17"/>
-      <c r="M56" s="16" t="s">
-        <v>20</v>
+      <c r="M56" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
+      <c r="O56" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
       <c r="R56" s="17"/>
@@ -4017,41 +4395,45 @@
       <c r="T56" s="17"/>
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E57" s="11">
+      <c r="A57" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" s="11">
         <v>1680.0</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="15" t="s">
-        <v>328</v>
+      <c r="H57" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J57" s="17"/>
-      <c r="K57" s="19" t="s">
-        <v>329</v>
+      <c r="K57" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="L57" s="17"/>
-      <c r="M57" s="16" t="s">
-        <v>20</v>
+      <c r="M57" s="18" t="s">
+        <v>387</v>
       </c>
       <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
+      <c r="O57" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
@@ -4059,41 +4441,45 @@
       <c r="T57" s="17"/>
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E58" s="11">
+      <c r="A58" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58" s="11">
         <v>1750.0</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="15" t="s">
-        <v>334</v>
+      <c r="H58" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J58" s="17"/>
-      <c r="K58" s="19" t="s">
-        <v>335</v>
+      <c r="K58" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="L58" s="17"/>
-      <c r="M58" s="16" t="s">
-        <v>20</v>
+      <c r="M58" s="18" t="s">
+        <v>394</v>
       </c>
       <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
+      <c r="O58" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
@@ -4101,41 +4487,45 @@
       <c r="T58" s="17"/>
       <c r="U58" s="17"/>
       <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="E59" s="11">
+      <c r="A59" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G59" s="11">
         <v>1420.0</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="15" t="s">
-        <v>340</v>
+      <c r="H59" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J59" s="17"/>
-      <c r="K59" s="19" t="s">
-        <v>341</v>
+      <c r="K59" s="15" t="s">
+        <v>400</v>
       </c>
       <c r="L59" s="17"/>
-      <c r="M59" s="16" t="s">
-        <v>20</v>
+      <c r="M59" s="18" t="s">
+        <v>401</v>
       </c>
       <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
+      <c r="O59" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
@@ -4143,41 +4533,45 @@
       <c r="T59" s="17"/>
       <c r="U59" s="17"/>
       <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E60" s="11">
+      <c r="A60" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" s="11">
         <v>1090.0</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="15" t="s">
-        <v>346</v>
+      <c r="H60" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J60" s="17"/>
-      <c r="K60" s="19" t="s">
-        <v>347</v>
+      <c r="K60" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="L60" s="17"/>
-      <c r="M60" s="16" t="s">
-        <v>20</v>
+      <c r="M60" s="18" t="s">
+        <v>408</v>
       </c>
       <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
+      <c r="O60" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
@@ -4185,41 +4579,45 @@
       <c r="T60" s="17"/>
       <c r="U60" s="17"/>
       <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="E61" s="11">
+      <c r="A61" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G61" s="11">
         <v>1720.0</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="15" t="s">
-        <v>352</v>
+      <c r="H61" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J61" s="17"/>
-      <c r="K61" s="19" t="s">
-        <v>353</v>
+      <c r="K61" s="15" t="s">
+        <v>414</v>
       </c>
       <c r="L61" s="17"/>
-      <c r="M61" s="16" t="s">
-        <v>20</v>
+      <c r="M61" s="18" t="s">
+        <v>415</v>
       </c>
       <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
+      <c r="O61" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P61" s="17"/>
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
@@ -4227,41 +4625,45 @@
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="E62" s="11">
+      <c r="A62" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G62" s="11">
         <v>1700.0</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="21" t="s">
+      <c r="H62" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I62" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J62" s="17"/>
-      <c r="K62" s="19" t="s">
-        <v>358</v>
+      <c r="K62" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="L62" s="17"/>
-      <c r="M62" s="16" t="s">
-        <v>20</v>
+      <c r="M62" s="18" t="s">
+        <v>421</v>
       </c>
       <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
+      <c r="O62" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
@@ -4269,41 +4671,45 @@
       <c r="T62" s="17"/>
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="E63" s="11">
+      <c r="A63" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G63" s="11">
         <v>1170.0</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="15" t="s">
-        <v>363</v>
+      <c r="H63" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J63" s="17"/>
-      <c r="K63" s="19" t="s">
-        <v>364</v>
+      <c r="K63" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="L63" s="17"/>
-      <c r="M63" s="16" t="s">
-        <v>20</v>
+      <c r="M63" s="18" t="s">
+        <v>428</v>
       </c>
       <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
+      <c r="O63" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P63" s="17"/>
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
@@ -4311,41 +4717,45 @@
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E64" s="11">
+      <c r="A64" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G64" s="11">
         <v>1800.0</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="21" t="s">
+      <c r="H64" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J64" s="17"/>
-      <c r="K64" s="19" t="s">
-        <v>369</v>
+      <c r="K64" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="L64" s="17"/>
-      <c r="M64" s="16" t="s">
-        <v>20</v>
+      <c r="M64" s="18" t="s">
+        <v>434</v>
       </c>
       <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
+      <c r="O64" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P64" s="17"/>
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
@@ -4353,41 +4763,45 @@
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E65" s="11">
+      <c r="A65" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="G65" s="11">
         <v>1160.0</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="17"/>
-      <c r="I65" s="15" t="s">
-        <v>374</v>
+      <c r="H65" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J65" s="17"/>
-      <c r="K65" s="19" t="s">
-        <v>375</v>
+      <c r="K65" s="15" t="s">
+        <v>440</v>
       </c>
       <c r="L65" s="17"/>
-      <c r="M65" s="16" t="s">
-        <v>20</v>
+      <c r="M65" s="18" t="s">
+        <v>441</v>
       </c>
       <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
+      <c r="O65" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
@@ -4395,41 +4809,45 @@
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E66" s="11">
+      <c r="A66" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G66" s="11">
         <v>1158.0</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="15" t="s">
-        <v>380</v>
+      <c r="H66" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J66" s="17"/>
-      <c r="K66" s="19" t="s">
-        <v>381</v>
+      <c r="K66" s="15" t="s">
+        <v>447</v>
       </c>
       <c r="L66" s="17"/>
-      <c r="M66" s="16" t="s">
-        <v>20</v>
+      <c r="M66" s="18" t="s">
+        <v>448</v>
       </c>
       <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
+      <c r="O66" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
@@ -4437,41 +4855,45 @@
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="E67" s="11">
+      <c r="A67" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G67" s="11">
         <v>1930.0</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="17"/>
-      <c r="I67" s="15" t="s">
+      <c r="H67" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J67" s="17"/>
-      <c r="K67" s="19" t="s">
-        <v>385</v>
+      <c r="K67" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="L67" s="17"/>
-      <c r="M67" s="16" t="s">
-        <v>20</v>
+      <c r="M67" s="18" t="s">
+        <v>453</v>
       </c>
       <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
+      <c r="O67" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
       <c r="R67" s="17"/>
@@ -4479,41 +4901,45 @@
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E68" s="11">
+      <c r="A68" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G68" s="11">
         <v>2020.0</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="17"/>
-      <c r="I68" s="15" t="s">
-        <v>334</v>
+      <c r="H68" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J68" s="17"/>
-      <c r="K68" s="19" t="s">
-        <v>389</v>
+      <c r="K68" s="15" t="s">
+        <v>393</v>
       </c>
       <c r="L68" s="17"/>
-      <c r="M68" s="16" t="s">
-        <v>20</v>
+      <c r="M68" s="18" t="s">
+        <v>458</v>
       </c>
       <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
+      <c r="O68" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
@@ -4521,41 +4947,45 @@
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="E69" s="11">
+      <c r="A69" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G69" s="11">
         <v>1875.0</v>
       </c>
-      <c r="F69" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="17"/>
-      <c r="I69" s="21" t="s">
+      <c r="H69" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="I69" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J69" s="17"/>
-      <c r="K69" s="19" t="s">
-        <v>358</v>
+      <c r="K69" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="L69" s="17"/>
-      <c r="M69" s="16" t="s">
-        <v>20</v>
+      <c r="M69" s="18" t="s">
+        <v>421</v>
       </c>
       <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
+      <c r="O69" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="17"/>
@@ -4563,62 +4993,64 @@
       <c r="T69" s="17"/>
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="F7"/>
-    <hyperlink r:id="rId7" ref="F8"/>
-    <hyperlink r:id="rId8" ref="F11"/>
-    <hyperlink r:id="rId9" ref="F12"/>
-    <hyperlink r:id="rId10" ref="F13"/>
-    <hyperlink r:id="rId11" ref="F14"/>
-    <hyperlink r:id="rId12" ref="F15"/>
-    <hyperlink r:id="rId13" ref="F17"/>
-    <hyperlink r:id="rId14" ref="F18"/>
-    <hyperlink r:id="rId15" ref="F22"/>
-    <hyperlink r:id="rId16" ref="F23"/>
-    <hyperlink r:id="rId17" ref="F24"/>
-    <hyperlink r:id="rId18" ref="F26"/>
-    <hyperlink r:id="rId19" ref="F27"/>
-    <hyperlink r:id="rId20" ref="F29"/>
-    <hyperlink r:id="rId21" ref="F30"/>
-    <hyperlink r:id="rId22" ref="F31"/>
-    <hyperlink r:id="rId23" ref="F32"/>
-    <hyperlink r:id="rId24" ref="F33"/>
-    <hyperlink r:id="rId25" ref="F34"/>
-    <hyperlink r:id="rId26" ref="F35"/>
-    <hyperlink r:id="rId27" ref="F37"/>
-    <hyperlink r:id="rId28" ref="F38"/>
-    <hyperlink r:id="rId29" ref="F40"/>
-    <hyperlink r:id="rId30" ref="F43"/>
-    <hyperlink r:id="rId31" ref="F44"/>
-    <hyperlink r:id="rId32" ref="F45"/>
-    <hyperlink r:id="rId33" ref="F48"/>
-    <hyperlink r:id="rId34" ref="F50"/>
-    <hyperlink r:id="rId35" ref="F51"/>
-    <hyperlink r:id="rId36" ref="F52"/>
-    <hyperlink r:id="rId37" ref="F53"/>
-    <hyperlink r:id="rId38" ref="F54"/>
-    <hyperlink r:id="rId39" ref="F55"/>
-    <hyperlink r:id="rId40" ref="F56"/>
-    <hyperlink r:id="rId41" ref="F57"/>
-    <hyperlink r:id="rId42" ref="F58"/>
-    <hyperlink r:id="rId43" ref="F59"/>
-    <hyperlink r:id="rId44" ref="F60"/>
-    <hyperlink r:id="rId45" ref="F61"/>
-    <hyperlink r:id="rId46" ref="F62"/>
-    <hyperlink r:id="rId47" ref="F63"/>
-    <hyperlink r:id="rId48" ref="F64"/>
-    <hyperlink r:id="rId49" ref="F65"/>
-    <hyperlink r:id="rId50" ref="F66"/>
-    <hyperlink r:id="rId51" ref="F67"/>
-    <hyperlink r:id="rId52" ref="F68"/>
-    <hyperlink r:id="rId53" ref="F69"/>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+    <hyperlink r:id="rId3" ref="H4"/>
+    <hyperlink r:id="rId4" ref="H5"/>
+    <hyperlink r:id="rId5" ref="H6"/>
+    <hyperlink r:id="rId6" ref="H7"/>
+    <hyperlink r:id="rId7" ref="H8"/>
+    <hyperlink r:id="rId8" ref="H11"/>
+    <hyperlink r:id="rId9" ref="H12"/>
+    <hyperlink r:id="rId10" ref="H13"/>
+    <hyperlink r:id="rId11" ref="H14"/>
+    <hyperlink r:id="rId12" ref="H15"/>
+    <hyperlink r:id="rId13" ref="H17"/>
+    <hyperlink r:id="rId14" ref="H18"/>
+    <hyperlink r:id="rId15" ref="H22"/>
+    <hyperlink r:id="rId16" ref="H23"/>
+    <hyperlink r:id="rId17" ref="H24"/>
+    <hyperlink r:id="rId18" ref="H26"/>
+    <hyperlink r:id="rId19" ref="H27"/>
+    <hyperlink r:id="rId20" ref="H29"/>
+    <hyperlink r:id="rId21" ref="H30"/>
+    <hyperlink r:id="rId22" ref="H31"/>
+    <hyperlink r:id="rId23" ref="H32"/>
+    <hyperlink r:id="rId24" ref="H33"/>
+    <hyperlink r:id="rId25" ref="H34"/>
+    <hyperlink r:id="rId26" ref="H35"/>
+    <hyperlink r:id="rId27" ref="H37"/>
+    <hyperlink r:id="rId28" ref="H38"/>
+    <hyperlink r:id="rId29" ref="H40"/>
+    <hyperlink r:id="rId30" ref="H43"/>
+    <hyperlink r:id="rId31" ref="H44"/>
+    <hyperlink r:id="rId32" ref="H45"/>
+    <hyperlink r:id="rId33" ref="H48"/>
+    <hyperlink r:id="rId34" ref="H50"/>
+    <hyperlink r:id="rId35" ref="H51"/>
+    <hyperlink r:id="rId36" ref="H52"/>
+    <hyperlink r:id="rId37" ref="H53"/>
+    <hyperlink r:id="rId38" ref="H54"/>
+    <hyperlink r:id="rId39" ref="H55"/>
+    <hyperlink r:id="rId40" ref="H56"/>
+    <hyperlink r:id="rId41" ref="H57"/>
+    <hyperlink r:id="rId42" ref="H58"/>
+    <hyperlink r:id="rId43" ref="H59"/>
+    <hyperlink r:id="rId44" ref="H60"/>
+    <hyperlink r:id="rId45" ref="H61"/>
+    <hyperlink r:id="rId46" ref="H62"/>
+    <hyperlink r:id="rId47" ref="H63"/>
+    <hyperlink r:id="rId48" ref="H64"/>
+    <hyperlink r:id="rId49" ref="H65"/>
+    <hyperlink r:id="rId50" ref="H66"/>
+    <hyperlink r:id="rId51" ref="H67"/>
+    <hyperlink r:id="rId52" ref="H68"/>
+    <hyperlink r:id="rId53" ref="H69"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.15748031496062992" footer="0.0" header="0.0" left="0.11811023622047245" right="0.11811023622047245" top="1.5208333333333333"/>
